--- a/Dokumentation/Testfall.xlsx
+++ b/Dokumentation/Testfall.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31740" yWindow="-1320" windowWidth="25600" windowHeight="15800" tabRatio="500"/>
+    <workbookView xWindow="28900" yWindow="-3520" windowWidth="25600" windowHeight="15800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>Testfall</t>
   </si>
@@ -76,13 +76,49 @@
   </si>
   <si>
     <t>Alla testfall passeras som vanligt</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
+  </si>
+  <si>
+    <t>Kan eller kan ej testat beroende på spelalternativ</t>
+  </si>
+  <si>
+    <t>Stenen ska studsa i ytterkanterna av enheten</t>
+  </si>
+  <si>
+    <t>Stenen ska glida mot en ytterkant på enheten</t>
+  </si>
+  <si>
+    <t>Stenen ska studsa mot kanten</t>
+  </si>
+  <si>
+    <t>Stämmer enbart om spelregler är satta så, annars ska den fortsätta ut</t>
+  </si>
+  <si>
+    <t>Poäng ska tilldelas korrekt</t>
+  </si>
+  <si>
+    <t>En sten åker över eller stannar i poängområde</t>
+  </si>
+  <si>
+    <t>poängsiffran för respektive spelare uppdateras korrekt</t>
+  </si>
+  <si>
+    <t>Sten ska kunna flyttas och tappas i eget område</t>
+  </si>
+  <si>
+    <t>Sten flyttas och släpps inom eget område</t>
+  </si>
+  <si>
+    <t>Stenen åker tillbaka till ursprunglig position och man får en ny chans att skicka ivägen sten.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,6 +130,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,8 +168,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -129,7 +187,13 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Följd hyperlänk" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -459,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:C27"/>
+  <dimension ref="B4:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -619,8 +683,125 @@
         <v>18</v>
       </c>
     </row>
+    <row r="28" spans="2:3" ht="30">
+      <c r="B28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="30">
+      <c r="B32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="30">
+      <c r="B34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="30">
+      <c r="B38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="30">
+      <c r="B39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="3"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="30">
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="45">
+      <c r="B44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
